--- a/biology/Médecine/CIM-10_Chapitre_19___Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes/CIM-10_Chapitre_19___Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_19___Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes/CIM-10_Chapitre_19___Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article développe le chapitre XIX de la classification internationale des maladies, CIM-10[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article développe le chapitre XIX de la classification internationale des maladies, CIM-10.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>S00-S09 Lésions traumatiques de la tête</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>S00 Lésion traumatique superficielle de la tête
 S00.0 Lésion traumatique superficielle du cuir chevelu
@@ -610,7 +624,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -628,7 +642,9 @@
           <t>S10-S19 Lésions traumatiques du cou</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>S10 Lésion traumatique superficielle du cou
 S10.0 Contusion de la gorge
@@ -693,7 +709,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -711,7 +727,9 @@
           <t>S20-S29 Lésions traumatiques du thorax</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>S20 Lésion traumatique superficielle du thorax
 S20.0 Contusion du sein
@@ -794,7 +812,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -812,7 +830,9 @@
           <t>S30-S39 Lésions traumatiques de l'abdomen, des lombes, du rachis lombaire et du bassin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>S30 Lésion traumatique superficielle de l'abdomen, des lombes et du bassin
 S30.0 Contusion des lombes et du bassin
@@ -909,7 +929,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -927,7 +947,9 @@
           <t>S40-S49 Lésions traumatiques de l'épaule et du bras</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>S40 Lésion traumatique superficielle de l'épaule et du bras
 S40.0 Contusion de l'épaule et du bras
@@ -1001,7 +1023,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1019,7 +1041,9 @@
           <t>S50-S59 Lésions traumatiques du coude et de l'avant-bras</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>S50 Lésion traumatique superficielle de l'avant-bras
 S50.0 Contusion du coude
@@ -1094,7 +1118,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1112,7 +1136,9 @@
           <t>S60-S69 Lésions traumatiques du poignet et de la main</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>S60 Lésion traumatique superficielle du poignet et de la main
 S60.0 Contusion de(s) doigt(s) sans lésion de l'ongle
@@ -1200,7 +1226,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1218,7 +1244,9 @@
           <t>S70-S79 Lésions traumatiques de la hanche et de la cuisse</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>S70 Lésion traumatique superficielle de la hanche et de la cuisse
 S70.0 Contusion de la hanche
@@ -1285,7 +1313,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1303,7 +1331,9 @@
           <t>S80-S89 Lésions traumatiques du genou et de la jambe</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>S80 Lésion traumatique superficielle de la jambe
 S80.0 Contusion du genou
@@ -1381,7 +1411,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1399,7 +1429,9 @@
           <t>S90-S99 Lésions traumatiques de la cheville et du pied</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>S90 Lésion traumatique superficielle de la cheville et du pied
 S90.0 Contusion de la cheville
@@ -1477,7 +1509,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1495,7 +1527,9 @@
           <t>T00-T07 Lésions traumatiques de plusieurs parties du corps</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>T00 Lésions traumatiques superficielles de plusieurs parties du corps
 T00.0 Lésions traumatiques superficielles de la tête avec lésions traumatiques superficielles du cou
@@ -1569,7 +1603,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1587,7 +1621,9 @@
           <t>T08-T14 Lésions traumatiques de siège non précisé du tronc, membre ou autre région du corps</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>T08 Fracture du rachis, niveau non précisé
 T09 Autres lésions traumatiques du rachis et du tronc, niveau non précisé
@@ -1642,7 +1678,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1660,7 +1696,9 @@
           <t>T15-T19 Effets dus à un corps étranger ayant pénétré dans un orifice naturel</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>T15 Corps étranger dans la partie externe de l'œil
 T15.0 Corps étranger dans la cornée
@@ -1702,7 +1740,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1722,8 +1760,13 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>T20-T25 Brûlures et corrosions de la surface externe du corps, selon la localisation
-T20 Brûlure et corrosion de la tête et du cou
+          <t>T20-T25 Brûlures et corrosions de la surface externe du corps, selon la localisation</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>T20 Brûlure et corrosion de la tête et du cou
 T20.0 Brûlure de la tête et du cou, degré non précisé
 T20.1 Brûlure du premier degré de la tête et du cou
 T20.2 Brûlure du second degré de la tête et du cou
@@ -1776,9 +1819,43 @@
 T25.4 Corrosion de la cheville et du pied, degré non précisé
 T25.5 Corrosion du premier degré de la cheville et du pied
 T25.6 Corrosion du second degré de la cheville et du pied
-T25.7 Corrosion du troisième degré de la cheville et du pied
-T26-T28 Brûlures et corrosions de l'œil et des organes internes
-T26 Brûlure et corrosion limitées à l'œil et ses annexes
+T25.7 Corrosion du troisième degré de la cheville et du pied</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>T20-T32 Brûlures et corrosions</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>T26-T28 Brûlures et corrosions de l'œil et des organes internes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>T26 Brûlure et corrosion limitées à l'œil et ses annexes
 T26.0 Brûlure de la paupière et de la région périoculaire
 T26.1 Brûlure de la cornée et du sac conjonctival
 T26.2 Brûlure provoquant la rupture et la destruction du globe oculaire
@@ -1808,9 +1885,43 @@
 T28.6 Corrosion de l'œsophage
 T28.7 Corrosion d'autres parties des voies digestives
 T28.8 Corrosion des organes génito-urinaires internes
-T28.9 Corrosion des organes internes, autres et sans précision
-T29-T32 Brûlures et corrosions de parties du corps, multiples et non précisées
-T29 Brûlures et corrosions de parties multiples du corps
+T28.9 Corrosion des organes internes, autres et sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>T20-T32 Brûlures et corrosions</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>T29-T32 Brûlures et corrosions de parties du corps, multiples et non précisées</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>T29 Brûlures et corrosions de parties multiples du corps
 T29.0 Brûlures de parties multiples du corps, degré non précisé
 T29.1 Brûlures de parties multiples du corps, pas de brûlures mentionnées dépassant le premier degré
 T29.2 Brûlures de parties multiples du corps, pas de brûlures mentionnées dépassant le second degré
@@ -1853,31 +1964,33 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>T33-T35 Gelures</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>T33 Gelure superficielle
 T33.0 Gelure superficielle de la tête
@@ -1913,31 +2026,33 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>T36-T50 Intoxications par des médicaments et des substances biologiques</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>T36 Intoxication par antibiotiques systémiques
 T36.0 Pénicillines
@@ -2083,31 +2198,33 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>T51-T65 Effets toxiques de substances d'origine essentiellement non médicinale</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>T50 Intoxication par diurétiques et médicaments et substances biologiques, autres et sans précision
 T50.0 Minéralocorticoïdes et leurs antagonistes
@@ -2216,31 +2333,33 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>T66-T78 Effets de causes externes, autres et non précisés</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>T65 Effet toxique de substances autres et non précisées
 T65.0 Cyanures
@@ -2311,31 +2430,33 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>T79 Certaines complications précoces des traumatismes</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>T79 Certaines complications précoces des traumatismes, non classées ailleurs
 T79.0 Embolie gazeuse (traumatique)
@@ -2351,31 +2472,33 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>T80-T88 Complications de soins chirurgicaux et médicaux, non classées ailleurs</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>T80 Complications consécutives à une injection thérapeutique, une perfusion et une transfusion
 T80.0 Embolie gazeuse consécutive à une injection thérapeutique, une perfusion et une transfusion
@@ -2471,31 +2594,33 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_19_:_Lésions_traumatiques,_empoisonnements_et_certaines_autres_conséquences_de_causes_externes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_19_:_L%C3%A9sions_traumatiques,_empoisonnements_et_certaines_autres_cons%C3%A9quences_de_causes_externes</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>T90-T98 Séquelles de lésions traumatiques, d'empoisonnements et d'autres conséquences de causes externes</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>T90 Séquelles de lésions traumatiques de la tête
 T90.0 Séquelles de lésion traumatique superficielle de la tête
